--- a/sprint_1_bd/exercicios_01/1.2-exercicio-locadora/modelagens/1.2_modelagem_fisico.xlsx
+++ b/sprint_1_bd/exercicios_01/1.2-exercicio-locadora/modelagens/1.2_modelagem_fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werther\Documents\SENAI - 2\sprint_1_bd\exercicios_01\1.2-exercicio-locadora\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331B417-8F8F-48A9-B186-5B332F37A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25F66A9-2A89-4D54-A7C3-09DA638A889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="15" windowWidth="28110" windowHeight="16440" xr2:uid="{F150418A-1BBA-449A-AF4B-AF264D542C04}"/>
   </bookViews>
@@ -221,11 +221,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -544,7 +544,7 @@
   <dimension ref="B3:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,24 +564,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -611,13 +611,13 @@
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -652,10 +652,10 @@
       <c r="M5" s="2">
         <v>200</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>44176</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>44177</v>
       </c>
     </row>
@@ -690,10 +690,10 @@
       <c r="M6" s="2">
         <v>300</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>44084</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>44085</v>
       </c>
     </row>
@@ -722,23 +722,23 @@
       <c r="M7" s="2">
         <v>250</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>44052</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>44084</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
@@ -809,10 +809,10 @@
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
